--- a/tests/testthat/_snaps/knitxl/message.xlsx
+++ b/tests/testthat/_snaps/knitxl/message.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">## foo</t>
+    <t xml:space="preserve">message('foo')</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">## foo</t>
   </si>
 </sst>
 </file>
@@ -25,13 +25,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
     </font>
     <font>
       <sz val="11"/>
@@ -60,9 +65,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,8 +367,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tests/testthat/_snaps/knitxl/message.xlsx
+++ b/tests/testthat/_snaps/knitxl/message.xlsx
@@ -358,7 +358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
